--- a/(보고서양식)한국은행.xlsx
+++ b/(보고서양식)한국은행.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\보고서앱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53639513-255B-4C76-A057-53585B799549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F154945A-376F-4066-87BF-B48C120CDC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="14" activeTab="15" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
   </bookViews>
   <sheets>
     <sheet name="서비스 이용 인원" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,16 @@
     <sheet name="소속별 이용 횟수" sheetId="22" r:id="rId12"/>
     <sheet name="직급별 이용 인원" sheetId="23" r:id="rId13"/>
     <sheet name="직급별 이용 횟수" sheetId="24" r:id="rId14"/>
-    <sheet name="심리진단 이용 횟수" sheetId="27" r:id="rId15"/>
+    <sheet name="상담회기별 이용 인원" sheetId="28" r:id="rId15"/>
+    <sheet name="상담회기별 이용 횟수" sheetId="29" r:id="rId16"/>
+    <sheet name="심리진단 이용 횟수" sheetId="27" r:id="rId17"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="70">
   <si>
     <t>심리상담</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -153,10 +155,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>재무/법률상담</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>60대 이상</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -254,6 +252,58 @@
   </si>
   <si>
     <t>6급(C3)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계*</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>실계**</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>No-show</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>세무/법률상담</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2회기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3회기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4회기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5회기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6회기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7회기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8회기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>9회기 이상</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +470,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="나눔스퀘어_ac"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="33">
@@ -847,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,6 +913,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1234,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C0E64F-3BDD-460F-B6D1-781E155C12C5}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1293,9 +1353,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>33</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1306,48 +1364,30 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>33</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2">
-        <v>34</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>34</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2">
-        <v>33</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="N5">
-        <v>33</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -1411,7 +1451,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1048576"/>
+      <selection activeCell="B2" sqref="B2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1470,9 +1510,7 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1483,52 +1521,34 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
-        <v>15</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>15</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
-        <v>34</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>34</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="N5">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1538,14 +1558,9 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
-        <v>60</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="N7">
-        <v>60</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -1594,7 +1609,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1048576"/>
+      <selection activeCell="B2" sqref="B2:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1651,11 +1666,9 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2">
-        <v>18</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1666,13 +1679,11 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="2">
-        <v>18</v>
-      </c>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1681,7 +1692,7 @@
     </row>
     <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1690,7 +1701,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1699,7 +1710,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1708,20 +1719,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="N7" s="2">
-        <v>2</v>
-      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1730,7 +1737,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1739,7 +1746,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1748,36 +1755,26 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1786,56 +1783,32 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="N19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B20">
-        <v>33</v>
-      </c>
-      <c r="N20">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1822,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1048576"/>
+      <selection activeCell="B2" sqref="B2:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1906,11 +1879,9 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2">
-        <v>35</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1921,13 +1892,11 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2" s="2">
-        <v>35</v>
-      </c>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1936,7 +1905,7 @@
     </row>
     <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1945,7 +1914,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1954,7 +1923,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1963,20 +1932,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="N7" s="2">
-        <v>4</v>
-      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1985,7 +1950,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1994,7 +1959,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2003,36 +1968,26 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2041,56 +1996,32 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="N18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="N19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B20">
-        <v>60</v>
-      </c>
-      <c r="N20">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2035,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2161,11 +2092,9 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2176,100 +2105,62 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="N5">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="N6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="N7">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="N8">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
-        <v>33</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="N9">
-        <v>33</v>
-      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
@@ -2324,7 +2215,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1048576"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2381,11 +2272,9 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2399,61 +2288,49 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="2">
-        <v>17</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="2">
-        <v>5</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
@@ -2461,9 +2338,7 @@
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2">
-        <v>60</v>
-      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
@@ -2516,6 +2391,374 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9798CF6A-9AFF-4419-A43C-E1835372B92A}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD9777F-D5A6-4C66-B83B-EAEDC84E0DF8}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887D7969-7F1A-407D-A7DE-EA36616D1C6F}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -2697,7 +2940,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2748,16 +2991,14 @@
         <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>60</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2768,38 +3009,27 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>60</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>61</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2863,7 +3093,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2921,9 +3151,7 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>23</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2939,9 +3167,7 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
-        <v>8</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
@@ -2949,9 +3175,7 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
@@ -2967,9 +3191,7 @@
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2">
-        <v>33</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
@@ -2977,9 +3199,7 @@
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2">
-        <v>33</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
@@ -3030,7 +3250,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3088,9 +3308,7 @@
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2">
-        <v>44</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3106,9 +3324,7 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
@@ -3116,9 +3332,7 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2">
-        <v>6</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
@@ -3132,16 +3346,15 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3193,7 +3406,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="B2" sqref="B2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3252,9 +3465,7 @@
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2">
-        <v>21</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3265,74 +3476,46 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="N5">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2">
-        <v>33</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="N6">
-        <v>33</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="2">
-        <v>33</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="N7">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -3381,7 +3564,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1048576"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3440,9 +3623,7 @@
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2">
-        <v>33</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3453,61 +3634,38 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>3</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2">
-        <v>6</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>6</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="2">
-        <v>11</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="N5">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
-        <v>60</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="N6">
-        <v>60</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
@@ -3562,7 +3720,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1048576"/>
+      <selection activeCell="B2" sqref="B2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3621,9 +3779,7 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
-        <v>16</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3634,35 +3790,22 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
-        <v>17</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>33</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>33</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -3727,7 +3870,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1048576"/>
+      <selection activeCell="B2" sqref="B2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3786,9 +3929,7 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2">
-        <v>32</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3799,35 +3940,22 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>32</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2">
-        <v>28</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>28</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>60</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>60</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -3892,7 +4020,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="B1:M1048576"/>
+      <selection activeCell="B2" sqref="B2:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3951,9 +4079,7 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -3964,52 +4090,34 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="N2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2">
-        <v>8</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="N3">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2">
-        <v>15</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="N4">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2">
-        <v>9</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="N5">
-        <v>9</v>
-      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4019,14 +4127,9 @@
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2">
-        <v>33</v>
-      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="N7">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
